--- a/scenarios_and_results/Scenario_low_discount_bio_2008_A.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_bio_2008_A.xlsx
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0004929217660369869</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0004929217660369869</v>
       </c>
       <c r="M7">
         <v>0.002305221785232306</v>
@@ -1585,7 +1585,7 @@
         <v>0.06995358877126744</v>
       </c>
       <c r="P7">
-        <v>32.95358859671753</v>
+        <v>40.0000000059839</v>
       </c>
       <c r="Q7">
         <v>0.7645150273224042</v>
@@ -1606,7 +1606,7 @@
         <v>40</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>7.046411409266373</v>
       </c>
       <c r="X7">
         <v>0</v>
